--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DocumentUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB19A7E9-C507-4E46-A051-61EE602403C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B0D135-69AC-4371-8336-D48F17AF7CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Test Step</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Successfully clicked on text</t>
+  </si>
+  <si>
+    <t>Validate text</t>
+  </si>
+  <si>
+    <t>Successfully validated text</t>
   </si>
 </sst>
 </file>
@@ -70,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,29 +385,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -429,6 +443,28 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
